--- a/biology/Zoologie/L'Incroyable_Voyage_2___À_San_Francisco/L'Incroyable_Voyage_2___À_San_Francisco.xlsx
+++ b/biology/Zoologie/L'Incroyable_Voyage_2___À_San_Francisco/L'Incroyable_Voyage_2___À_San_Francisco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Incroyable_Voyage_2_:_%C3%80_San_Francisco</t>
+          <t>L'Incroyable_Voyage_2_:_À_San_Francisco</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Incroyable Voyage 2 : À San Francisco ou Retour au bercail 2 : Perdus à San Francisco au Québec (Homeward Bound 2: Lost in San Francisco) est un film américain réalisé par David Richard Ellis, sorti en 1996.
 Il est la suite de L'Incroyable Voyage (1993).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Incroyable_Voyage_2_:_%C3%80_San_Francisco</t>
+          <t>L'Incroyable_Voyage_2_:_À_San_Francisco</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Shadow le vieux golden retriever, Chance le fougueux bouledogue américain et Sassy la délicate chatte himalayenne sont de retour. En route pour les vacances, la famille Burnford s'envole pour le Canada. Mais alors qu'ils sont transportés vers la soute à bagage de l'avion, les animaux s'échappent de l'aéroport et en cherchant en vain à regagner la maison, la joyeuse troupe s'égare dans les rues de San Francisco où ils font la connaissance de nombreux chiens errants, parmi lesquels le chef de bande Riley et la belle Delilah.
 Nos trois amis, peu habitués à l'inhospitalité urbaine, se retrouvent vite confrontés aux situations les plus insolites et les plus dangereuses, comme les trafiquants d'animaux se déplaçant en fourgonnette rouge et qui veulent capturer les chiens de la ville pour des expériences en laboratoire. La route qui les ramènera chez eux sera longue, périlleuse et riche en rencontres inattendues.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Incroyable_Voyage_2_:_%C3%80_San_Francisco</t>
+          <t>L'Incroyable_Voyage_2_:_À_San_Francisco</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par les bases de données Allociné et IMDb.
 Titre original : Homeward Bound 2 : Lost in San Francisco
@@ -564,18 +580,18 @@
 Coproduction : Justis Greene et James Pentecost
 Sociétés de production : City Dogs Productions, présenté par Walt Disney Pictures
 Sociétés de distribution : Buena Vista Pictures Distribution (États-Unis) ; Gaumont Buena Vista International (France)
-Budget : n/a[1]
+Budget : n/a
 Pays de production :  États-Unis
 Langue originale : anglais
 Format : couleur (Technicolor) — 35 mm — 1,85:1 (Panavision) — son : Dolby Digital
 Genre : aventure, comédie, romance
 Durée : 88 minutes
-Dates de sortie[2] :
+Dates de sortie :
 États-Unis : 8 mars 1996
-France : 23 octobre 1996[3],[4]
+France : 23 octobre 1996,
 Classification :
 États-Unis : tous publics (G - General Audiences)
-France : tous publics (conseillé à partir de 6 ans)[5],[6]</t>
+France : tous publics (conseillé à partir de 6 ans),</t>
         </is>
       </c>
     </row>
@@ -585,7 +601,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27Incroyable_Voyage_2_:_%C3%80_San_Francisco</t>
+          <t>L'Incroyable_Voyage_2_:_À_San_Francisco</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -605,8 +621,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Distribution et voix originales
-Michael J. Fox : Chance (voix)
+          <t>Distribution et voix originales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Michael J. Fox : Chance (voix)
 Sally Field : Sassy (voix)
 Ralph Waite : Shadow (voix)
 Al Michaels : Sparky Michaels (voix)
@@ -628,18 +649,86 @@
 Veronica Lauren (VF : Chloé Berthier ; VQ : Élizabeth Lesieur) : Hope Burnford
 Kevin Chevalia (VF : Julien Bouanich) : Jamy Burnford
 Max Perlich (VQ : Jacques Brouillet) : Ralph
-Michael Rispoli (VQ : Éric Gaudry) : Jack
-Voix françaises
-Éric Métayer : Chance
+Michael Rispoli (VQ : Éric Gaudry) : Jack</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>L'Incroyable_Voyage_2_:_À_San_Francisco</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Incroyable_Voyage_2_:_%C3%80_San_Francisco</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution et doublage</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Voix françaises</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Éric Métayer : Chance
 Claire Guyot : Sassy
 Saïd Amadis : Shadow
 Francis Lax : Ashcan
 Henri Guybet : Pete
 Daniel Beretta : Riley
 Joëlle Guigui : Delilah
-Michel Mella : Stockey
-Voix québécoises
-Olivier Visentin : Chance
+Michel Mella : Stockey</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>L'Incroyable_Voyage_2_:_À_San_Francisco</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Incroyable_Voyage_2_:_%C3%80_San_Francisco</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distribution et doublage</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Voix québécoises</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Olivier Visentin : Chance
 Claudine Chatel : Sassy
 Jean Brousseau : Shadow
 Yves Massicotte : Lucky Lasorta
@@ -653,33 +742,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>L%27Incroyable_Voyage_2_:_%C3%80_San_Francisco</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/L%27Incroyable_Voyage_2_:_%C3%80_San_Francisco</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>L'Incroyable_Voyage_2_:_À_San_Francisco</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Incroyable_Voyage_2_:_%C3%80_San_Francisco</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Sorties cinéma</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Sauf mention contraire, les informations suivantes sont issues de l'IMDb[2]
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Sauf mention contraire, les informations suivantes sont issues de l'IMDb
 États-Unis : 8 mars 1996
 Australie : 27 juin 1996
 Brésil : 26 juillet 1996
@@ -687,7 +778,7 @@
 Norvège : 20 septembre 1996
 Afrique du Sud : 20 septembre 1996
 Danemark : 4 octobre 1996
-France : 23 octobre 1996[3],[4]
+France : 23 octobre 1996,
 Argentine : 19 décembre 1996
 Italie : 24 janvier 1997
 Allemagne : 30 janvier 1997
@@ -697,98 +788,41 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>L%27Incroyable_Voyage_2_:_%C3%80_San_Francisco</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/L%27Incroyable_Voyage_2_:_%C3%80_San_Francisco</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>L'Incroyable_Voyage_2_:_À_San_Francisco</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Incroyable_Voyage_2_:_%C3%80_San_Francisco</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Sorties vidéos</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Sauf mention contraire, les informations suivantes sont issues de l'IMDb[2]
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Sauf mention contraire, les informations suivantes sont issues de l'IMDb
 Royaume-Uni : 18 novembre 1996
 Portugal : 1er janvier 1997
 Hongrie : 30 janvier 1997
 Japon : 21 février 1997
 Finlande : 22 novembre 1998 (DVD)
-En France, le film L'Incroyable Voyage est sorti en DVD le 25 novembre 1998[7] et ressorti en DVD le 21 mai 2003[8].</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>L%27Incroyable_Voyage_2_:_%C3%80_San_Francisco</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/L%27Incroyable_Voyage_2_:_%C3%80_San_Francisco</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Origine et production</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>L%27Incroyable_Voyage_2_:_%C3%80_San_Francisco</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/L%27Incroyable_Voyage_2_:_%C3%80_San_Francisco</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Sortie et Accueil</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Box-office
-Sauf mention contraire, les informations suivantes sont issues de Box Office Mojo[9]
-Recettes du 1er week-end aux États-Unis : 8 605 649 $ (USD) (du 8 mars 1996 au 10 mars 1996)
-Recettes aux États-Unis : 32 772 492 $ (USD)[10]</t>
+En France, le film L'Incroyable Voyage est sorti en DVD le 25 novembre 1998 et ressorti en DVD le 21 mai 2003.</t>
         </is>
       </c>
     </row>
@@ -798,7 +832,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>L%27Incroyable_Voyage_2_:_%C3%80_San_Francisco</t>
+          <t>L'Incroyable_Voyage_2_:_À_San_Francisco</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -813,12 +847,80 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Origine et production</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>L'Incroyable_Voyage_2_:_À_San_Francisco</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Incroyable_Voyage_2_:_%C3%80_San_Francisco</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Sortie et Accueil</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Sauf mention contraire, les informations suivantes sont issues de Box Office Mojo
+Recettes du 1er week-end aux États-Unis : 8 605 649 $ (USD) (du 8 mars 1996 au 10 mars 1996)
+Recettes aux États-Unis : 32 772 492 $ (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>L'Incroyable_Voyage_2_:_À_San_Francisco</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Incroyable_Voyage_2_:_%C3%80_San_Francisco</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Nominations</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Source : Internet Movie Database[11]
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Source : Internet Movie Database
 The Stinkers Bad Movie Awards 1996 : la suite que personne ne réclamait
 Kids' Choice Awards 1997 :
 Animal mignon préféré
@@ -826,31 +928,33 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>L%27Incroyable_Voyage_2_:_%C3%80_San_Francisco</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/L%27Incroyable_Voyage_2_:_%C3%80_San_Francisco</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>L'Incroyable_Voyage_2_:_À_San_Francisco</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Incroyable_Voyage_2_:_%C3%80_San_Francisco</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Autour du film</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>De nombreuses scènes du film furent tournées à San Francisco, celles-ci incluant un plan tourné sur le pont de San Francisco, le Golden Gate Bridge, des panoramas de la ville depuis la Coit Tower mais également des scènes dans des parcs de la ville ainsi que dans Chinatown  le quartier chinois, et son marché aux poissons.</t>
         </is>
